--- a/Build Theme Epic Story Task CML.xlsx
+++ b/Build Theme Epic Story Task CML.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keesingtechnologies-my.sharepoint.com/personal/c_larsen_keesingtechnologies_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C.Larsen\OneDrive - Keesing Reference Systems\Documents\Agile Scrum Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="48950A2F83E952C9177A93B720D7D0738DF1274C" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{BAEC4A85-56C3-4C90-A369-2CBA06B9E527}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="48950A2F83E952C9177A93B720D7D0738DF1274C" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{47BFDAA0-988D-4E4E-B4D6-C0A1ABC4DADC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" activeTab="2" xr2:uid="{79CBEBB8-83D1-4791-80F6-3DA13E5C1D92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" activeTab="6" xr2:uid="{79CBEBB8-83D1-4791-80F6-3DA13E5C1D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Build" sheetId="1" r:id="rId1"/>
     <sheet name="Acronyms" sheetId="6" r:id="rId2"/>
     <sheet name="Theme" sheetId="2" r:id="rId3"/>
     <sheet name="Epic" sheetId="3" r:id="rId4"/>
-    <sheet name="Story" sheetId="4" r:id="rId5"/>
-    <sheet name="Task" sheetId="5" r:id="rId6"/>
+    <sheet name="Features" sheetId="7" r:id="rId5"/>
+    <sheet name="Story" sheetId="4" r:id="rId6"/>
+    <sheet name="Task" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Document Legenda</t>
   </si>
@@ -123,12 +125,65 @@
   <si>
     <t>Category</t>
   </si>
+  <si>
+    <t>Document version</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Impediment</t>
+  </si>
+  <si>
+    <t>Task
+Prio</t>
+  </si>
+  <si>
+    <t>Task
+nr</t>
+  </si>
+  <si>
+    <t>Story
+Points</t>
+  </si>
+  <si>
+    <t>Esitimated
+Hours</t>
+  </si>
+  <si>
+    <t>To
+Do</t>
+  </si>
+  <si>
+    <t>In
+Progress</t>
+  </si>
+  <si>
+    <t>Actual
+Time</t>
+  </si>
+  <si>
+    <t>Daily
+Scrum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -170,6 +225,20 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -216,6 +285,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50C9FEF-2206-4488-BB7E-3D88F2BA2C17}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -613,6 +697,14 @@
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -697,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282940F4-7DB0-4882-A5F6-1B34CAD9DA29}">
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -765,11 +857,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BEED7D-7E91-4356-B4E9-11361BB7B250}">
+  <dimension ref="B4:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF87694-D7CB-442B-B4FE-44140B7480A3}">
   <dimension ref="B4:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -805,14 +937,212 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE991F7-ACA2-47DC-A08E-2C3EB1155DC8}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:V55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="1.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="1.625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="14.625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="1.625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="14.625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="1.625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.625" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="30" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="5">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>